--- a/Horrific_Medusa_Excel/ReminderType.xlsx
+++ b/Horrific_Medusa_Excel/ReminderType.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SofiaAndersson\Documents\SCHOOL\HorrificMedusa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeatriceVilhelmsson\Documents\GitHubs\Projekt_HM\Horrific_Medusa_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
